--- a/11 - Misc/Notas.xlsx
+++ b/11 - Misc/Notas.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr codeName="EstaPastaDeTrabalho"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disrct\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win8\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C6D5A1-2FDA-4945-AF93-50B85B639448}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Notas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Vinicius</t>
   </si>
@@ -103,13 +102,22 @@
   </si>
   <si>
     <t>Python</t>
+  </si>
+  <si>
+    <t>SENAI</t>
+  </si>
+  <si>
+    <t>BOSCH</t>
+  </si>
+  <si>
+    <t>Arduino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,13 +125,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFF41215"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF005CA8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,8 +168,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,394 +458,830 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="C3:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="N13">
+        <v>9</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
         <v>10</v>
       </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
         <v>10</v>
       </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>9</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>4</v>
       </c>
       <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
         <v>10</v>
       </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
       <c r="F18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>6</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>7</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="O22">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>